--- a/Team-Data/2012-13/1-18-2012-13.xlsx
+++ b/Team-Data/2012-13/1-18-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" t="n">
         <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.579</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -693,28 +760,28 @@
         <v>8.699999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.375</v>
+        <v>0.374</v>
       </c>
       <c r="O2" t="n">
         <v>13.2</v>
       </c>
       <c r="P2" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="Q2" t="n">
         <v>0.703</v>
       </c>
       <c r="R2" t="n">
-        <v>9.699999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="S2" t="n">
         <v>30.7</v>
       </c>
       <c r="T2" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="U2" t="n">
         <v>23.2</v>
@@ -726,31 +793,31 @@
         <v>8.4</v>
       </c>
       <c r="X2" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.9</v>
+        <v>17.7</v>
       </c>
       <c r="AA2" t="n">
         <v>18.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.59999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -759,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ2" t="n">
         <v>22</v>
@@ -792,19 +859,19 @@
         <v>16</v>
       </c>
       <c r="AT2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV2" t="n">
         <v>16</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -848,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="n">
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
-        <v>0.513</v>
+        <v>0.526</v>
       </c>
       <c r="H3" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="I3" t="n">
         <v>36.9</v>
       </c>
       <c r="J3" t="n">
-        <v>79.8</v>
+        <v>79.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.339</v>
+        <v>0.341</v>
       </c>
       <c r="O3" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="P3" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.775</v>
+        <v>0.777</v>
       </c>
       <c r="R3" t="n">
         <v>8.4</v>
       </c>
       <c r="S3" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T3" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="U3" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="V3" t="n">
         <v>14.3</v>
@@ -911,40 +978,40 @@
         <v>4.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
         <v>19.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.2</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC3" t="n">
         <v>-0.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI3" t="n">
         <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK3" t="n">
         <v>6</v>
@@ -956,10 +1023,10 @@
         <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP3" t="n">
         <v>24</v>
@@ -977,25 +1044,25 @@
         <v>30</v>
       </c>
       <c r="AU3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV3" t="n">
         <v>8</v>
       </c>
       <c r="AW3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX3" t="n">
         <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -1030,88 +1097,88 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="n">
         <v>16</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="J4" t="n">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L4" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M4" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O4" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="P4" t="n">
-        <v>24.8</v>
+        <v>24.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.752</v>
+        <v>0.755</v>
       </c>
       <c r="R4" t="n">
         <v>12.7</v>
       </c>
       <c r="S4" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="T4" t="n">
-        <v>42</v>
+        <v>41.8</v>
       </c>
       <c r="U4" t="n">
         <v>20.2</v>
       </c>
       <c r="V4" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W4" t="n">
         <v>7.3</v>
       </c>
       <c r="X4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF4" t="n">
         <v>9</v>
@@ -1120,16 +1187,16 @@
         <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>12</v>
@@ -1138,22 +1205,22 @@
         <v>9</v>
       </c>
       <c r="AN4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
         <v>7</v>
       </c>
       <c r="AP4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR4" t="n">
         <v>7</v>
       </c>
       <c r="AS4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AT4" t="n">
         <v>16</v>
@@ -1162,13 +1229,13 @@
         <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW4" t="n">
         <v>25</v>
       </c>
       <c r="AX4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY4" t="n">
         <v>6</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -1212,43 +1279,43 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
         <v>29</v>
       </c>
       <c r="G5" t="n">
-        <v>0.256</v>
+        <v>0.237</v>
       </c>
       <c r="H5" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I5" t="n">
         <v>34.9</v>
       </c>
       <c r="J5" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.424</v>
+        <v>0.423</v>
       </c>
       <c r="L5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O5" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="P5" t="n">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="Q5" t="n">
         <v>0.746</v>
@@ -1257,16 +1324,16 @@
         <v>11.8</v>
       </c>
       <c r="S5" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T5" t="n">
         <v>41.3</v>
       </c>
       <c r="U5" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="V5" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W5" t="n">
         <v>7.4</v>
@@ -1275,31 +1342,31 @@
         <v>6.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.09999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF5" t="n">
         <v>28</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH5" t="n">
         <v>6</v>
@@ -1320,7 +1387,7 @@
         <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
         <v>3</v>
@@ -1344,7 +1411,7 @@
         <v>30</v>
       </c>
       <c r="AV5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW5" t="n">
         <v>22</v>
@@ -1362,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
         <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>0.605</v>
+        <v>0.595</v>
       </c>
       <c r="H6" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I6" t="n">
         <v>35.5</v>
       </c>
       <c r="J6" t="n">
-        <v>80.59999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L6" t="n">
         <v>4.6</v>
@@ -1427,73 +1494,73 @@
         <v>0.358</v>
       </c>
       <c r="O6" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="P6" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.784</v>
+        <v>0.786</v>
       </c>
       <c r="R6" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S6" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T6" t="n">
         <v>43.7</v>
       </c>
       <c r="U6" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V6" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W6" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X6" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y6" t="n">
         <v>5.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>94.09999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC6" t="n">
         <v>2.2</v>
       </c>
       <c r="AD6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH6" t="n">
         <v>23</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>14</v>
       </c>
       <c r="AI6" t="n">
         <v>24</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1502,7 +1569,7 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
@@ -1514,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="AR6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS6" t="n">
         <v>12</v>
@@ -1523,31 +1590,31 @@
         <v>7</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW6" t="n">
         <v>23</v>
       </c>
       <c r="AX6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB6" t="n">
         <v>25</v>
       </c>
       <c r="BC6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-5.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1663,7 +1730,7 @@
         <v>30</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH7" t="n">
         <v>26</v>
@@ -1690,10 +1757,10 @@
         <v>18</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR7" t="n">
         <v>4</v>
@@ -1702,13 +1769,13 @@
         <v>30</v>
       </c>
       <c r="AT7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU7" t="n">
         <v>29</v>
       </c>
       <c r="AV7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW7" t="n">
         <v>9</v>
@@ -1726,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BC7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" t="n">
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" t="n">
-        <v>0.415</v>
+        <v>0.425</v>
       </c>
       <c r="H8" t="n">
-        <v>49.2</v>
+        <v>49.1</v>
       </c>
       <c r="I8" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J8" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K8" t="n">
         <v>0.449</v>
@@ -1791,61 +1858,61 @@
         <v>0.356</v>
       </c>
       <c r="O8" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="P8" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.793</v>
+        <v>0.792</v>
       </c>
       <c r="R8" t="n">
         <v>9.4</v>
       </c>
       <c r="S8" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T8" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U8" t="n">
         <v>22.1</v>
       </c>
       <c r="V8" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W8" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X8" t="n">
         <v>5.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z8" t="n">
         <v>21.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC8" t="n">
         <v>-3</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
       </c>
       <c r="AF8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH8" t="n">
         <v>1</v>
@@ -1866,13 +1933,13 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
         <v>5</v>
@@ -1881,10 +1948,10 @@
         <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU8" t="n">
         <v>14</v>
@@ -1893,19 +1960,19 @@
         <v>13</v>
       </c>
       <c r="AW8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ8" t="n">
         <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="n">
         <v>24</v>
       </c>
       <c r="F9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>0.571</v>
+        <v>0.585</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1961,67 +2028,67 @@
         <v>85</v>
       </c>
       <c r="K9" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L9" t="n">
         <v>6.1</v>
       </c>
       <c r="M9" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.328</v>
+        <v>0.326</v>
       </c>
       <c r="O9" t="n">
         <v>17.5</v>
       </c>
       <c r="P9" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.681</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="R9" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="S9" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T9" t="n">
-        <v>45.6</v>
+        <v>45.9</v>
       </c>
       <c r="U9" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V9" t="n">
         <v>15.2</v>
       </c>
       <c r="W9" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X9" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA9" t="n">
         <v>21.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AD9" t="n">
         <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF9" t="n">
         <v>12</v>
@@ -2030,7 +2097,7 @@
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
         <v>2</v>
@@ -2072,10 +2139,10 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>-1.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
@@ -2233,7 +2300,7 @@
         <v>7</v>
       </c>
       <c r="AO10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2254,7 +2321,7 @@
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW10" t="n">
         <v>29</v>
@@ -2263,16 +2330,16 @@
         <v>9</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ10" t="n">
         <v>18</v>
       </c>
       <c r="BA10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC10" t="n">
         <v>18</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="n">
         <v>23</v>
       </c>
       <c r="F11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
-        <v>0.605</v>
+        <v>0.622</v>
       </c>
       <c r="H11" t="n">
         <v>48.5</v>
@@ -2328,70 +2395,70 @@
         <v>0.456</v>
       </c>
       <c r="L11" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M11" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>0.387</v>
+        <v>0.39</v>
       </c>
       <c r="O11" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="P11" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.793</v>
+        <v>0.792</v>
       </c>
       <c r="R11" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S11" t="n">
         <v>34.3</v>
       </c>
       <c r="T11" t="n">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="U11" t="n">
         <v>22.9</v>
       </c>
       <c r="V11" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="W11" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X11" t="n">
         <v>4</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z11" t="n">
         <v>21.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH11" t="n">
         <v>10</v>
@@ -2403,7 +2470,7 @@
         <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2412,10 +2479,10 @@
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP11" t="n">
         <v>22</v>
@@ -2433,16 +2500,16 @@
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW11" t="n">
         <v>26</v>
       </c>
       <c r="AX11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY11" t="n">
         <v>16</v>
@@ -2451,7 +2518,7 @@
         <v>27</v>
       </c>
       <c r="BA11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -2486,55 +2553,55 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" t="n">
         <v>21</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>0.512</v>
+        <v>0.525</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="J12" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L12" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="M12" t="n">
         <v>28</v>
       </c>
       <c r="N12" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O12" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="P12" t="n">
-        <v>25.3</v>
+        <v>25.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="R12" t="n">
         <v>10.6</v>
       </c>
       <c r="S12" t="n">
-        <v>32.3</v>
+        <v>32.5</v>
       </c>
       <c r="T12" t="n">
-        <v>42.8</v>
+        <v>43</v>
       </c>
       <c r="U12" t="n">
         <v>22.7</v>
@@ -2546,43 +2613,43 @@
         <v>8.699999999999999</v>
       </c>
       <c r="X12" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA12" t="n">
         <v>19.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>105.1</v>
+        <v>105.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
         <v>7</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
         <v>4</v>
@@ -2603,13 +2670,13 @@
         <v>6</v>
       </c>
       <c r="AQ12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT12" t="n">
         <v>11</v>
@@ -2621,25 +2688,25 @@
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
         <v>10</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB12" t="n">
         <v>2</v>
       </c>
       <c r="BC12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -2668,97 +2735,97 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" t="n">
         <v>16</v>
       </c>
       <c r="G13" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="J13" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.422</v>
+        <v>0.42</v>
       </c>
       <c r="L13" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M13" t="n">
         <v>19.3</v>
       </c>
       <c r="N13" t="n">
-        <v>0.339</v>
+        <v>0.333</v>
       </c>
       <c r="O13" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P13" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.739</v>
+        <v>0.737</v>
       </c>
       <c r="R13" t="n">
         <v>13.1</v>
       </c>
       <c r="S13" t="n">
-        <v>33.2</v>
+        <v>33.4</v>
       </c>
       <c r="T13" t="n">
-        <v>46.3</v>
+        <v>46.4</v>
       </c>
       <c r="U13" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V13" t="n">
         <v>14.9</v>
       </c>
       <c r="W13" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X13" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z13" t="n">
         <v>19.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>91.5</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF13" t="n">
         <v>9</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
@@ -2770,19 +2837,19 @@
         <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM13" t="n">
         <v>16</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ13" t="n">
         <v>23</v>
@@ -2791,7 +2858,7 @@
         <v>5</v>
       </c>
       <c r="AS13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -2800,7 +2867,7 @@
         <v>28</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>27</v>
@@ -2809,10 +2876,10 @@
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA13" t="n">
         <v>7</v>
@@ -2821,7 +2888,7 @@
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
         <v>2</v>
@@ -2946,10 +3013,10 @@
         <v>3</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>13</v>
@@ -2958,7 +3025,7 @@
         <v>11</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO14" t="n">
         <v>11</v>
@@ -2976,7 +3043,7 @@
         <v>17</v>
       </c>
       <c r="AT14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
@@ -3131,7 +3198,7 @@
         <v>19</v>
       </c>
       <c r="AK15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL15" t="n">
         <v>3</v>
@@ -3152,7 +3219,7 @@
         <v>29</v>
       </c>
       <c r="AR15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS15" t="n">
         <v>4</v>
@@ -3185,7 +3252,7 @@
         <v>4</v>
       </c>
       <c r="BC15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" t="n">
         <v>13</v>
       </c>
       <c r="G16" t="n">
-        <v>0.658</v>
+        <v>0.649</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3232,85 +3299,85 @@
         <v>35.8</v>
       </c>
       <c r="J16" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K16" t="n">
         <v>0.434</v>
       </c>
       <c r="L16" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M16" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O16" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P16" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.796</v>
+        <v>0.799</v>
       </c>
       <c r="R16" t="n">
         <v>13.3</v>
       </c>
       <c r="S16" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T16" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U16" t="n">
         <v>20.6</v>
       </c>
       <c r="V16" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W16" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y16" t="n">
         <v>5.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA16" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF16" t="n">
         <v>5</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI16" t="n">
         <v>22</v>
       </c>
       <c r="AJ16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>24</v>
@@ -3322,10 +3389,10 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP16" t="n">
         <v>18</v>
@@ -3340,25 +3407,25 @@
         <v>25</v>
       </c>
       <c r="AT16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU16" t="n">
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AY16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA16" t="n">
         <v>13</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3504,13 +3571,13 @@
         <v>8</v>
       </c>
       <c r="AN17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP17" t="n">
         <v>13</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>12</v>
       </c>
       <c r="AQ17" t="n">
         <v>14</v>
@@ -3525,7 +3592,7 @@
         <v>29</v>
       </c>
       <c r="AU17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -3656,19 +3723,19 @@
         <v>-1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI18" t="n">
         <v>12</v>
@@ -3686,16 +3753,16 @@
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP18" t="n">
         <v>20</v>
       </c>
       <c r="AQ18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
@@ -3704,10 +3771,10 @@
         <v>14</v>
       </c>
       <c r="AT18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV18" t="n">
         <v>9</v>
@@ -3725,7 +3792,7 @@
         <v>7</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>-1.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
@@ -3856,7 +3923,7 @@
         <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK19" t="n">
         <v>26</v>
@@ -3889,22 +3956,22 @@
         <v>5</v>
       </c>
       <c r="AU19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY19" t="n">
         <v>23</v>
       </c>
       <c r="AZ19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -4020,19 +4087,19 @@
         <v>-4</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>26</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG20" t="n">
         <v>26</v>
       </c>
       <c r="AH20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
         <v>23</v>
@@ -4044,7 +4111,7 @@
         <v>15</v>
       </c>
       <c r="AL20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM20" t="n">
         <v>21</v>
@@ -4080,13 +4147,13 @@
         <v>28</v>
       </c>
       <c r="AX20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY20" t="n">
         <v>26</v>
       </c>
       <c r="AZ20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>5</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
         <v>5</v>
@@ -4220,7 +4287,7 @@
         <v>13</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK21" t="n">
         <v>14</v>
@@ -4232,16 +4299,16 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO21" t="n">
         <v>22</v>
       </c>
       <c r="AP21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
@@ -4253,7 +4320,7 @@
         <v>26</v>
       </c>
       <c r="AU21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
@@ -4262,7 +4329,7 @@
         <v>7</v>
       </c>
       <c r="AX21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY21" t="n">
         <v>2</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" t="n">
         <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8</v>
+        <v>0.795</v>
       </c>
       <c r="H22" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I22" t="n">
         <v>37.7</v>
       </c>
       <c r="J22" t="n">
-        <v>79</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.477</v>
+        <v>0.479</v>
       </c>
       <c r="L22" t="n">
         <v>7.6</v>
@@ -4336,37 +4403,37 @@
         <v>19.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.389</v>
+        <v>0.392</v>
       </c>
       <c r="O22" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="P22" t="n">
-        <v>27.1</v>
+        <v>26.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.838</v>
+        <v>0.836</v>
       </c>
       <c r="R22" t="n">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
       <c r="S22" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T22" t="n">
-        <v>43.4</v>
+        <v>43.1</v>
       </c>
       <c r="U22" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="V22" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W22" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X22" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y22" t="n">
         <v>4.1</v>
@@ -4375,16 +4442,16 @@
         <v>20.4</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.7</v>
+        <v>105.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4396,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
@@ -4405,10 +4472,10 @@
         <v>29</v>
       </c>
       <c r="AK22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM22" t="n">
         <v>15</v>
@@ -4426,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS22" t="n">
         <v>5</v>
@@ -4435,13 +4502,13 @@
         <v>10</v>
       </c>
       <c r="AU22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AV22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4453,7 +4520,7 @@
         <v>20</v>
       </c>
       <c r="BA22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" t="n">
         <v>14</v>
       </c>
       <c r="F23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" t="n">
-        <v>0.359</v>
+        <v>0.368</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
@@ -4506,16 +4573,16 @@
         <v>37.8</v>
       </c>
       <c r="J23" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K23" t="n">
         <v>0.456</v>
       </c>
       <c r="L23" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M23" t="n">
-        <v>19.1</v>
+        <v>18.8</v>
       </c>
       <c r="N23" t="n">
         <v>0.353</v>
@@ -4524,22 +4591,22 @@
         <v>12.7</v>
       </c>
       <c r="P23" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.784</v>
+        <v>0.786</v>
       </c>
       <c r="R23" t="n">
         <v>10.3</v>
       </c>
       <c r="S23" t="n">
-        <v>32.2</v>
+        <v>32.4</v>
       </c>
       <c r="T23" t="n">
-        <v>42.5</v>
+        <v>42.7</v>
       </c>
       <c r="U23" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V23" t="n">
         <v>14.7</v>
@@ -4554,19 +4621,19 @@
         <v>4.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="AC23" t="n">
         <v>-3.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
         <v>23</v>
@@ -4578,7 +4645,7 @@
         <v>23</v>
       </c>
       <c r="AH23" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AI23" t="n">
         <v>7</v>
@@ -4587,13 +4654,13 @@
         <v>13</v>
       </c>
       <c r="AK23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN23" t="n">
         <v>17</v>
@@ -4614,10 +4681,10 @@
         <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV23" t="n">
         <v>14</v>
@@ -4632,13 +4699,13 @@
         <v>12</v>
       </c>
       <c r="AZ23" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC23" t="n">
         <v>23</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -4670,43 +4737,43 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
       </c>
       <c r="G24" t="n">
-        <v>0.425</v>
+        <v>0.41</v>
       </c>
       <c r="H24" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>37.1</v>
+        <v>36.8</v>
       </c>
       <c r="J24" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="L24" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M24" t="n">
         <v>18.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.357</v>
+        <v>0.361</v>
       </c>
       <c r="O24" t="n">
         <v>12.6</v>
       </c>
       <c r="P24" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="Q24" t="n">
         <v>0.722</v>
@@ -4718,10 +4785,10 @@
         <v>30.3</v>
       </c>
       <c r="T24" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U24" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V24" t="n">
         <v>12.8</v>
@@ -4739,46 +4806,46 @@
         <v>18.9</v>
       </c>
       <c r="AA24" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="AB24" t="n">
-        <v>93.2</v>
+        <v>92.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>-4.1</v>
+        <v>-4.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="n">
         <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ24" t="n">
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AM24" t="n">
         <v>22</v>
       </c>
       <c r="AN24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4793,25 +4860,25 @@
         <v>22</v>
       </c>
       <c r="AS24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT24" t="n">
         <v>23</v>
       </c>
       <c r="AU24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AY24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ24" t="n">
         <v>5</v>
@@ -4823,7 +4890,7 @@
         <v>27</v>
       </c>
       <c r="BC24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>26</v>
@@ -4951,7 +5018,7 @@
         <v>4</v>
       </c>
       <c r="AK25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL25" t="n">
         <v>25</v>
@@ -4960,7 +5027,7 @@
         <v>23</v>
       </c>
       <c r="AN25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO25" t="n">
         <v>26</v>
@@ -4975,16 +5042,16 @@
         <v>15</v>
       </c>
       <c r="AS25" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AT25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW25" t="n">
         <v>15</v>
@@ -5005,7 +5072,7 @@
         <v>18</v>
       </c>
       <c r="BC25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -5112,19 +5179,19 @@
         <v>-2.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
       </c>
       <c r="AF26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI26" t="n">
         <v>19</v>
@@ -5142,19 +5209,19 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
         <v>21</v>
       </c>
       <c r="AQ26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR26" t="n">
         <v>12</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>13</v>
       </c>
       <c r="AS26" t="n">
         <v>21</v>
@@ -5172,7 +5239,7 @@
         <v>18</v>
       </c>
       <c r="AX26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -5216,58 +5283,58 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" t="n">
         <v>15</v>
       </c>
       <c r="F27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G27" t="n">
-        <v>0.375</v>
+        <v>0.385</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="J27" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.439</v>
+        <v>0.442</v>
       </c>
       <c r="L27" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M27" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.356</v>
+        <v>0.358</v>
       </c>
       <c r="O27" t="n">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="P27" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.767</v>
+        <v>0.769</v>
       </c>
       <c r="R27" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S27" t="n">
         <v>28.6</v>
       </c>
       <c r="T27" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U27" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="V27" t="n">
         <v>14.6</v>
@@ -5276,25 +5343,25 @@
         <v>8</v>
       </c>
       <c r="X27" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.90000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6</v>
+        <v>-5.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
@@ -5306,34 +5373,34 @@
         <v>22</v>
       </c>
       <c r="AH27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM27" t="n">
         <v>17</v>
       </c>
-      <c r="AJ27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>19</v>
-      </c>
       <c r="AN27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP27" t="n">
         <v>14</v>
       </c>
       <c r="AQ27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR27" t="n">
         <v>12</v>
@@ -5342,10 +5409,10 @@
         <v>29</v>
       </c>
       <c r="AT27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV27" t="n">
         <v>12</v>
@@ -5354,19 +5421,19 @@
         <v>14</v>
       </c>
       <c r="AX27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY27" t="n">
         <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -5398,79 +5465,79 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" t="n">
         <v>11</v>
       </c>
       <c r="G28" t="n">
-        <v>0.738</v>
+        <v>0.732</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="J28" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.486</v>
+        <v>0.487</v>
       </c>
       <c r="L28" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.388</v>
+        <v>0.391</v>
       </c>
       <c r="O28" t="n">
         <v>16.4</v>
       </c>
       <c r="P28" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.795</v>
+        <v>0.792</v>
       </c>
       <c r="R28" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>33.3</v>
+        <v>33.1</v>
       </c>
       <c r="T28" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U28" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="V28" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W28" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X28" t="n">
         <v>5.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.5</v>
+        <v>104.8</v>
       </c>
       <c r="AC28" t="n">
         <v>8.4</v>
@@ -5479,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="AE28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF28" t="n">
         <v>3</v>
@@ -5521,16 +5588,16 @@
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW28" t="n">
         <v>5</v>
@@ -5542,7 +5609,7 @@
         <v>13</v>
       </c>
       <c r="AZ28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA28" t="n">
         <v>26</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -5580,43 +5647,43 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" t="n">
         <v>14</v>
       </c>
       <c r="F29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29" t="n">
-        <v>0.35</v>
+        <v>0.359</v>
       </c>
       <c r="H29" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="I29" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J29" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L29" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M29" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.348</v>
+        <v>0.345</v>
       </c>
       <c r="O29" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P29" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="Q29" t="n">
         <v>0.775</v>
@@ -5625,16 +5692,16 @@
         <v>10.9</v>
       </c>
       <c r="S29" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T29" t="n">
         <v>40.1</v>
       </c>
       <c r="U29" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="V29" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="W29" t="n">
         <v>7.3</v>
@@ -5646,31 +5713,31 @@
         <v>5.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA29" t="n">
         <v>19.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.1</v>
+        <v>-1.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
       </c>
       <c r="AF29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI29" t="n">
         <v>20</v>
@@ -5682,19 +5749,19 @@
         <v>22</v>
       </c>
       <c r="AL29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM29" t="n">
         <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP29" t="n">
         <v>12</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>13</v>
       </c>
       <c r="AQ29" t="n">
         <v>10</v>
@@ -5709,10 +5776,10 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW29" t="n">
         <v>24</v>
@@ -5730,7 +5797,7 @@
         <v>15</v>
       </c>
       <c r="BB29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC29" t="n">
         <v>20</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>-0.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>13</v>
       </c>
       <c r="AF30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH30" t="n">
         <v>18</v>
@@ -5864,7 +5931,7 @@
         <v>13</v>
       </c>
       <c r="AL30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM30" t="n">
         <v>25</v>
@@ -5876,10 +5943,10 @@
         <v>5</v>
       </c>
       <c r="AP30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
@@ -5909,7 +5976,7 @@
         <v>28</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
@@ -5944,67 +6011,67 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
         <v>29</v>
       </c>
       <c r="G31" t="n">
-        <v>0.216</v>
+        <v>0.194</v>
       </c>
       <c r="H31" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="I31" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="J31" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K31" t="n">
-        <v>0.417</v>
+        <v>0.415</v>
       </c>
       <c r="L31" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M31" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.334</v>
+        <v>0.33</v>
       </c>
       <c r="O31" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="P31" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.743</v>
+        <v>0.745</v>
       </c>
       <c r="R31" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S31" t="n">
         <v>32.4</v>
       </c>
       <c r="T31" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U31" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="V31" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="W31" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X31" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y31" t="n">
         <v>4.9</v>
@@ -6013,13 +6080,13 @@
         <v>20.8</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB31" t="n">
-        <v>90.90000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>-6</v>
+        <v>-6.3</v>
       </c>
       <c r="AD31" t="n">
         <v>29</v>
@@ -6034,25 +6101,25 @@
         <v>30</v>
       </c>
       <c r="AH31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI31" t="n">
         <v>29</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
       </c>
       <c r="AL31" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AM31" t="n">
         <v>14</v>
       </c>
       <c r="AN31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO31" t="n">
         <v>25</v>
@@ -6061,13 +6128,13 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR31" t="n">
         <v>17</v>
       </c>
       <c r="AS31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT31" t="n">
         <v>6</v>
@@ -6076,7 +6143,7 @@
         <v>20</v>
       </c>
       <c r="AV31" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AW31" t="n">
         <v>19</v>
@@ -6091,7 +6158,7 @@
         <v>22</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-18-2012-13</t>
+          <t>2013-01-18</t>
         </is>
       </c>
     </row>
